--- a/docs/assets/disciplinas/LOM3016.xlsx
+++ b/docs/assets/disciplinas/LOM3016.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="35">
   <si>
     <t>Ementa atual:</t>
   </si>
@@ -70,7 +70,7 @@
     <t>Objetivos:</t>
   </si>
   <si>
-    <t>Apresentar aos estudantes de engenharia os conceitos básicos de Ciência dos Materiais.</t>
+    <t>6495737 - Durval Rodrigues Junior</t>
   </si>
   <si>
     <t>Objectives:</t>
@@ -79,69 +79,46 @@
     <t>Docentes responsáveis:</t>
   </si>
   <si>
-    <t>6495737 - Durval Rodrigues Junior</t>
+    <t>Programa resumido:</t>
+  </si>
+  <si>
+    <t>Short syllabus:</t>
+  </si>
+  <si>
+    <t>Programa:</t>
   </si>
   <si>
     <t>5983729 - Fernando Vernilli Junior</t>
   </si>
   <si>
+    <t>Syllabus:</t>
+  </si>
+  <si>
+    <t>Avaliação:</t>
+  </si>
+  <si>
+    <t>Método:</t>
+  </si>
+  <si>
     <t>7459752 - Maria Ismenia Sodero Toledo Faria</t>
   </si>
   <si>
-    <t>Programa resumido:</t>
-  </si>
-  <si>
-    <t>Estrutura e ligação atômica. 2  Estruturas dos materiais. 3  Imperfeições em sólidos. 4  Diagrama de fases. 5  Propriedades mecânicas</t>
-  </si>
-  <si>
-    <t>Short syllabus:</t>
-  </si>
-  <si>
-    <t>Programa:</t>
-  </si>
-  <si>
-    <t>1. Estrutura e ligação atômica: estrutura dos átomos; ligações covalente, iônica, metálica e forças de van der Waals.
-2. Estruturas dos materiais: sólidos cristalinos; direções e planos cristalográficos; células unitárias; redes de Bravais; fator de empacotamento; métodos para determinação das estruturas cristalinas; estruturas metálicas, iônicas e moleculares. Estrutura de cerâmicas. Estrutura de polímeros. Sólidos amorfos: vidros e polímeros. Aspectos básicos de materiais compósitos. Exemplos de materiais de engenharia.
-3. Imperfeições em sólidos: tipos e formação de defeitos; lacunas; soluções sólidas (intersticial e substitucional); estruturas ordenadas; compostos intermetálicos; discordâncias; movimento de discordâncias; defeitos planares (interfaces). Exemplos práticos.
-4. Diagrama de fases: definição de fase; regra de Gibbs; curva de resfriamento; diagramas de equilíbrio de sistemas binários; equilíbrio de formação e decomposição de fases. Exemplos de diagramas de fases relacionados com a microestrutura dos materiais.
-5. Conceitos básicos sobre as propriedades mecânicas dos materiais: conceitos de tensão e deformação; propriedades elásticas; deformação plástica; plasticidade e fluxo; materiais não newtonianos; relaxação e fluência; fadiga. Exemplos e casos práticos.</t>
-  </si>
-  <si>
-    <t>Syllabus:</t>
-  </si>
-  <si>
-    <t>Avaliação:</t>
-  </si>
-  <si>
-    <t>Método:</t>
+    <t>Critério:</t>
   </si>
   <si>
     <t>Serão aplicadas duas provas escritas com notas P1 e P2.</t>
   </si>
   <si>
-    <t>Critério:</t>
+    <t>Norma de recuperação:</t>
   </si>
   <si>
     <t>A nota final NF será calculada pela fórmula: NF=(P1 + P2)/2.</t>
   </si>
   <si>
-    <t>Norma de recuperação:</t>
+    <t>Bibliografia:</t>
   </si>
   <si>
     <t>Será aplicada uma prova escrita NR que comporá com a nota final NF a média final após recuperação MF=(NF+NF)/2.</t>
-  </si>
-  <si>
-    <t>Bibliografia:</t>
-  </si>
-  <si>
-    <t>1) Askeland, D. R.; Phule, P. P. Ciência e engenharia dos materiais. São Paulo: CENGAGE, 2008.
-2) Callister Jr., W. D. Fundamentos da ciência e engenharia de materiais. Rio de Janeiro: LTC Editora, 2006.
-3) Callister Jr., W. D. Ciência e engenharia de materiais. Rio de Janeiro: LTC Editora, 2008.
-4) Van Vlack, L. H. Princípios de ciência e tecnologia dos materiais. Rio de Janeiro: Editora Campus, 1984.
-5) Shackelford, J. E. Ciência dos materiais. São Paulo: Prentice Hall, 2008. 
-6) Jastrzebski, Z. D. The nature and properties of engineering materials. Nova Iorque: John Wiley, 1987.
-7) Padilha, A. F. Materiais de engenharia: microestrutura e propriedades. São Paulo: Hemus Editora, 1997.
-8) Ashby, M. F.; Jones, D. R. H. Engenharia de materiais, 2 vol. Rio de Janeiro: Elsevier Editora, 2007.</t>
   </si>
 </sst>
 </file>
@@ -497,7 +474,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C24"/>
+  <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -622,47 +599,44 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" ht="60" customHeight="1">
+      <c r="A13" s="1" t="s">
+        <v>21</v>
+      </c>
       <c r="B13" s="2" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="B14" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="60" customHeight="1">
+      <c r="A14" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C14" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
+    </row>
+    <row r="15" spans="1:3" ht="120" customHeight="1">
+      <c r="A15" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="B15" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="60" customHeight="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="120" customHeight="1">
       <c r="A16" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B16" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C16" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="60" customHeight="1">
+    </row>
+    <row r="17" spans="1:3">
       <c r="A17" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="120" customHeight="1">
+    <row r="18" spans="1:3" ht="60" customHeight="1">
       <c r="A18" s="1" t="s">
         <v>27</v>
       </c>
@@ -673,58 +647,37 @@
         <v>28</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="120" customHeight="1">
+    <row r="19" spans="1:3" ht="60" customHeight="1">
       <c r="A19" s="1" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="20" spans="1:3">
+      <c r="B19" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="60" customHeight="1">
       <c r="A20" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="60" customHeight="1">
+        <v>31</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="120" customHeight="1">
       <c r="A21" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" ht="60" customHeight="1">
-      <c r="A22" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B22" s="2" t="s">
         <v>34</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" ht="60" customHeight="1">
-      <c r="A23" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" ht="120" customHeight="1">
-      <c r="A24" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>38</v>
       </c>
     </row>
   </sheetData>

--- a/docs/assets/disciplinas/LOM3016.xlsx
+++ b/docs/assets/disciplinas/LOM3016.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="39">
   <si>
     <t>Ementa atual:</t>
   </si>
@@ -70,25 +70,41 @@
     <t>Objetivos:</t>
   </si>
   <si>
+    <t>Apresentar aos estudantes de engenharia os conceitos básicos de Ciência dos Materiais.</t>
+  </si>
+  <si>
+    <t>Objectives:</t>
+  </si>
+  <si>
+    <t>Docentes responsáveis:</t>
+  </si>
+  <si>
     <t>6495737 - Durval Rodrigues Junior</t>
   </si>
   <si>
-    <t>Objectives:</t>
-  </si>
-  <si>
-    <t>Docentes responsáveis:</t>
+    <t>5983729 - Fernando Vernilli Junior</t>
+  </si>
+  <si>
+    <t>7459752 - Maria Ismenia Sodero Toledo Faria</t>
   </si>
   <si>
     <t>Programa resumido:</t>
   </si>
   <si>
+    <t>Estrutura e ligação atômica. 2  Estruturas dos materiais. 3  Imperfeições em sólidos. 4  Diagrama de fases. 5  Propriedades mecânicas</t>
+  </si>
+  <si>
     <t>Short syllabus:</t>
   </si>
   <si>
     <t>Programa:</t>
   </si>
   <si>
-    <t>5983729 - Fernando Vernilli Junior</t>
+    <t>1. Estrutura e ligação atômica: estrutura dos átomos; ligações covalente, iônica, metálica e forças de van der Waals.
+2. Estruturas dos materiais: sólidos cristalinos; direções e planos cristalográficos; células unitárias; redes de Bravais; fator de empacotamento; métodos para determinação das estruturas cristalinas; estruturas metálicas, iônicas e moleculares. Estrutura de cerâmicas. Estrutura de polímeros. Sólidos amorfos: vidros e polímeros. Aspectos básicos de materiais compósitos. Exemplos de materiais de engenharia.
+3. Imperfeições em sólidos: tipos e formação de defeitos; lacunas; soluções sólidas (intersticial e substitucional); estruturas ordenadas; compostos intermetálicos; discordâncias; movimento de discordâncias; defeitos planares (interfaces). Exemplos práticos.
+4. Diagrama de fases: definição de fase; regra de Gibbs; curva de resfriamento; diagramas de equilíbrio de sistemas binários; equilíbrio de formação e decomposição de fases. Exemplos de diagramas de fases relacionados com a microestrutura dos materiais.
+5. Conceitos básicos sobre as propriedades mecânicas dos materiais: conceitos de tensão e deformação; propriedades elásticas; deformação plástica; plasticidade e fluxo; materiais não newtonianos; relaxação e fluência; fadiga. Exemplos e casos práticos.</t>
   </si>
   <si>
     <t>Syllabus:</t>
@@ -100,25 +116,32 @@
     <t>Método:</t>
   </si>
   <si>
-    <t>7459752 - Maria Ismenia Sodero Toledo Faria</t>
+    <t>Serão aplicadas duas provas escritas com notas P1 e P2.</t>
   </si>
   <si>
     <t>Critério:</t>
   </si>
   <si>
-    <t>Serão aplicadas duas provas escritas com notas P1 e P2.</t>
+    <t>A nota final NF será calculada pela fórmula: NF=(P1 + P2)/2.</t>
   </si>
   <si>
     <t>Norma de recuperação:</t>
   </si>
   <si>
-    <t>A nota final NF será calculada pela fórmula: NF=(P1 + P2)/2.</t>
+    <t>Será aplicada uma prova escrita NR que comporá com a nota final NF a média final após recuperação MF=(NF+NF)/2.</t>
   </si>
   <si>
     <t>Bibliografia:</t>
   </si>
   <si>
-    <t>Será aplicada uma prova escrita NR que comporá com a nota final NF a média final após recuperação MF=(NF+NF)/2.</t>
+    <t>1) Askeland, D. R.; Phule, P. P. Ciência e engenharia dos materiais. São Paulo: CENGAGE, 2008.
+2) Callister Jr., W. D. Fundamentos da ciência e engenharia de materiais. Rio de Janeiro: LTC Editora, 2006.
+3) Callister Jr., W. D. Ciência e engenharia de materiais. Rio de Janeiro: LTC Editora, 2008.
+4) Van Vlack, L. H. Princípios de ciência e tecnologia dos materiais. Rio de Janeiro: Editora Campus, 1984.
+5) Shackelford, J. E. Ciência dos materiais. São Paulo: Prentice Hall, 2008. 
+6) Jastrzebski, Z. D. The nature and properties of engineering materials. Nova Iorque: John Wiley, 1987.
+7) Padilha, A. F. Materiais de engenharia: microestrutura e propriedades. São Paulo: Hemus Editora, 1997.
+8) Ashby, M. F.; Jones, D. R. H. Engenharia de materiais, 2 vol. Rio de Janeiro: Elsevier Editora, 2007.</t>
   </si>
 </sst>
 </file>
@@ -474,13 +497,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C21"/>
+  <dimension ref="A1:C24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="2" width="30.7109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="30.7109375" style="1" customWidth="1"/>
     <col min="2" max="2" width="60.7109375" style="2" customWidth="1"/>
     <col min="3" max="3" width="60.7109375" style="3" customWidth="1"/>
   </cols>
@@ -599,44 +622,47 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="60" customHeight="1">
-      <c r="A13" s="1" t="s">
+    <row r="13" spans="1:3">
+      <c r="B13" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B13" s="2" t="s">
-        <v>18</v>
-      </c>
       <c r="C13" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="60" customHeight="1">
-      <c r="A14" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="B14" s="2" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" ht="120" customHeight="1">
-      <c r="A15" s="1" t="s">
+      <c r="C14" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="B15" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="C15" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="60" customHeight="1">
+      <c r="A16" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C15" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="120" customHeight="1">
-      <c r="A16" s="1" t="s">
+      <c r="B16" s="2" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="17" spans="1:3">
+      <c r="C16" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="60" customHeight="1">
       <c r="A17" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="60" customHeight="1">
+    <row r="18" spans="1:3" ht="120" customHeight="1">
       <c r="A18" s="1" t="s">
         <v>27</v>
       </c>
@@ -647,37 +673,58 @@
         <v>28</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="60" customHeight="1">
+    <row r="19" spans="1:3" ht="120" customHeight="1">
       <c r="A19" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B19" s="2" t="s">
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C19" s="3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" ht="60" customHeight="1">
-      <c r="A20" s="1" t="s">
+    </row>
+    <row r="21" spans="1:3" ht="60" customHeight="1">
+      <c r="A21" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="B21" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C20" s="3" t="s">
+      <c r="C21" s="3" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="120" customHeight="1">
-      <c r="A21" s="1" t="s">
+    <row r="22" spans="1:3" ht="60" customHeight="1">
+      <c r="A22" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="B22" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C21" s="3" t="s">
+      <c r="C22" s="3" t="s">
         <v>34</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="60" customHeight="1">
+      <c r="A23" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="120" customHeight="1">
+      <c r="A24" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>
